--- a/Formato 1/ilm_Scrap.xlsx
+++ b/Formato 1/ilm_Scrap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>list name</t>
   </si>
@@ -202,21 +202,6 @@
   </si>
   <si>
     <t>Colocar correctamente el peso</t>
-  </si>
-  <si>
-    <t>${Peso1}</t>
-  </si>
-  <si>
-    <t>${Peso2}</t>
-  </si>
-  <si>
-    <t>${Peso3}</t>
-  </si>
-  <si>
-    <t>${Peso4}</t>
-  </si>
-  <si>
-    <t>${Peso5}</t>
   </si>
   <si>
     <t>Algun Posible Comentario</t>
@@ -739,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -946,9 +931,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
-        <v>62</v>
-      </c>
+      <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28" t="s">
         <v>26</v>
@@ -976,9 +959,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
-        <v>63</v>
-      </c>
+      <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28" t="s">
         <v>26</v>
@@ -1006,9 +987,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28" t="s">
         <v>26</v>
@@ -1036,9 +1015,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
-        <v>66</v>
-      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28" t="s">
         <v>26</v>
@@ -1066,9 +1043,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28" t="s">
         <v>26</v>
@@ -1084,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>30</v>
@@ -1108,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>41</v>
@@ -1205,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C32"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1213,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>33</v>
@@ -1250,7 +1225,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>34</v>
@@ -1262,7 +1237,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -1274,10 +1249,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -1286,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -1298,10 +1273,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -1310,10 +1285,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -1322,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -4515,7 +4490,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>40</v>

--- a/Formato 1/ilm_Scrap.xlsx
+++ b/Formato 1/ilm_Scrap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>list name</t>
   </si>
@@ -69,33 +69,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Elija la Fecha</t>
-  </si>
-  <si>
-    <t>Fecha de la realización del Checklist</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Introduzca la Hora del Checklist</t>
-  </si>
-  <si>
-    <t>Hora de Captura</t>
-  </si>
-  <si>
     <t>quick</t>
   </si>
   <si>
@@ -105,18 +78,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>Comentarios_posible_causa</t>
-  </si>
-  <si>
-    <t>En dado caso de querer hacer un comentario (Opcional)</t>
-  </si>
-  <si>
-    <t>multiline</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -141,9 +102,6 @@
     <t xml:space="preserve">AAAAB3NzaC1yc2EAAAADAQABAAABAQDdliXm5P4yBTyL57DzcRnVAAz0hKnm00MM00qBN7jC49ilV0tG3uw/0hC1+kFKwcgIE28vm92Fscdggop+YzFju2nIMoxQPbuCKLDEri94pwW5A/MFdppVaflPIcBg5Ghszm7KFv5UD1DFRLFHil0yXoM8ss1tlRLHd8T1v2eqlF1nLYEU6moNE5XZ4azPiTTzSaWXmA8/aV9O9+cxVtk34KpW39XSHYzMO79xn+OG5qpBt6ctr888KfjrJZom41hfOse8MKuxq9naKKizul/81etK8hUYgd+ABwFa1QM6eKluSN9cTtE1J0TsIVe6d4Df+YANq17qb7o5sClOoUdl </t>
   </si>
   <si>
-    <t>Opcional</t>
-  </si>
-  <si>
     <t>.&gt;0</t>
   </si>
   <si>
@@ -204,12 +162,6 @@
     <t>Colocar correctamente el peso</t>
   </si>
   <si>
-    <t>Algun Posible Comentario</t>
-  </si>
-  <si>
-    <t>Toma una foto del Modelo</t>
-  </si>
-  <si>
     <t>https://ona.io/charlyshaka</t>
   </si>
   <si>
@@ -250,6 +202,39 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Fecha de inicio</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>CHECKLIST PARA SCRAP</t>
+  </si>
+  <si>
+    <t>Se necesita llenar todos los campos</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>($(Peso1)+$(Peso2)+$(Peso3)+$(Peso4)+$(Peso5))/5</t>
+  </si>
+  <si>
+    <t>promedio</t>
   </si>
 </sst>
 </file>
@@ -329,7 +314,7 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,11 +428,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -451,6 +438,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -724,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,7 +730,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,41 +750,41 @@
     <col min="13" max="16384" width="17.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -811,43 +806,37 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -859,19 +848,15 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>46</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
@@ -879,24 +864,22 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>16</v>
@@ -906,200 +889,204 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="29" t="s">
-        <v>31</v>
+      <c r="J12" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="28"/>
+    <row r="13" spans="1:12" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>14</v>
@@ -1210,97 +1197,97 @@
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -1312,7 +1299,7 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
@@ -1324,7 +1311,7 @@
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B12" s="19">
         <v>2</v>
@@ -1336,7 +1323,7 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B13" s="19">
         <v>3</v>
@@ -1348,7 +1335,7 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B14" s="19">
         <v>4</v>
@@ -1360,7 +1347,7 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B15" s="19">
         <v>5</v>
@@ -1372,7 +1359,7 @@
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B16" s="19">
         <v>6</v>
@@ -1384,7 +1371,7 @@
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B17" s="19">
         <v>7</v>
@@ -1396,7 +1383,7 @@
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B18" s="19">
         <v>8</v>
@@ -1408,7 +1395,7 @@
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B19" s="19">
         <v>9</v>
@@ -1420,7 +1407,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B20" s="19">
         <v>10</v>
@@ -1432,7 +1419,7 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B21" s="19">
         <v>11</v>
@@ -1444,7 +1431,7 @@
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B22" s="19">
         <v>12</v>
@@ -1456,7 +1443,7 @@
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B23" s="19">
         <v>13</v>
@@ -1468,7 +1455,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B24" s="19">
         <v>14</v>
@@ -1480,7 +1467,7 @@
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B25" s="19">
         <v>15</v>
@@ -1492,7 +1479,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B26" s="19">
         <v>16</v>
@@ -1504,7 +1491,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B27" s="19">
         <v>17</v>
@@ -1516,7 +1503,7 @@
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B28" s="19">
         <v>18</v>
@@ -1528,7 +1515,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B29" s="19">
         <v>19</v>
@@ -1540,7 +1527,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B30" s="19">
         <v>20</v>
@@ -1552,7 +1539,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B31" s="19">
         <v>21</v>
@@ -1564,7 +1551,7 @@
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B32" s="19">
         <v>22</v>
@@ -4476,24 +4463,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
